--- a/NUCLEO-H743ZI2_FOC/circle/BOM/BOM.xlsx
+++ b/NUCLEO-H743ZI2_FOC/circle/BOM/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60105\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60105\Desktop\simplefoc\Simplefoc\NUCLEO-H743ZI2_FOC\circle\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B657C94-7A29-4A80-928C-E7B6E5CB55A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B24576-8382-4C5F-AC74-539BB9AD4CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-116" yWindow="-116" windowWidth="28160" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28044" yWindow="-116" windowWidth="28160" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOFP144_0R5_SKT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_PWR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +290,10 @@
   </si>
   <si>
     <t>0603R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOFP100_0R5_SKT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.2"/>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -888,7 +888,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -933,13 +933,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -967,13 +967,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -984,13 +984,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1001,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -1035,10 +1035,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
@@ -1052,13 +1052,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1069,21 +1069,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
       <c r="E25">
         <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/NUCLEO-H743ZI2_FOC/circle/BOM/BOM.xlsx
+++ b/NUCLEO-H743ZI2_FOC/circle/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60105\Desktop\simplefoc\Simplefoc\NUCLEO-H743ZI2_FOC\circle\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B24576-8382-4C5F-AC74-539BB9AD4CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E6C1BF-A273-4C36-BD88-98354525AE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28044" yWindow="-116" windowWidth="28160" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,10 @@
   </si>
   <si>
     <t>LOFP100_0R5_SKT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +628,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.2"/>
@@ -769,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -786,7 +790,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -803,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>1</v>
